--- a/TestInput coffeyville.xlsx
+++ b/TestInput coffeyville.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\CO2 TRANSPORT NETWORK MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400467D5-5D12-4544-B275-5FCDB2B2CD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F423771-3E59-4B33-B7E6-FD1FCAD047CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{715AA4C4-D452-40C8-87FD-9FD8322D773E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{715AA4C4-D452-40C8-87FD-9FD8322D773E}"/>
   </bookViews>
   <sheets>
     <sheet name="sources" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -683,10 +683,10 @@
         <v>17</v>
       </c>
       <c r="I10">
-        <v>37.052261999999999</v>
+        <v>37.046080000000003</v>
       </c>
       <c r="J10">
-        <v>-95.608901000000003</v>
+        <v>-95.604206000000005</v>
       </c>
     </row>
   </sheetData>
